--- a/SVD_Files/RST.xlsx
+++ b/SVD_Files/RST.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\PACK\Test\SVD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\PACK\MDR_Pack\SVD_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="289">
   <si>
     <t>Bits</t>
   </si>
@@ -888,6 +888,9 @@
   </si>
   <si>
     <t>SSPx_C2</t>
+  </si>
+  <si>
+    <t>0x3FDF</t>
   </si>
 </sst>
 </file>
@@ -1097,27 +1100,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1128,6 +1110,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1410,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="G166" sqref="G166"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,7 +2845,7 @@
         <v>230</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="H61" s="19" t="s">
         <v>230</v>
@@ -3625,28 +3628,28 @@
       <c r="B100" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F100" s="20" t="s">
+      <c r="F100" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G100" s="21"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="27"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="20"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>0</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="26" t="s">
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="28" t="s">
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="21" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3654,16 +3657,16 @@
       <c r="A102" s="1">
         <v>1</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25" t="s">
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
       <c r="I102" s="5" t="s">
         <v>257</v>
       </c>
@@ -3672,16 +3675,16 @@
       <c r="A103" s="1">
         <v>2</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25" t="s">
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
       <c r="I103" s="5" t="s">
         <v>107</v>
       </c>
@@ -3690,57 +3693,57 @@
       <c r="A104" s="1">
         <v>3</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>4</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
       <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>5</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C106" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
       <c r="G106" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H106" s="25" t="s">
+      <c r="H106" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="I106" s="25"/>
+      <c r="I106" s="27"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>6</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C107" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
       <c r="F107" t="s">
         <v>138</v>
       </c>
@@ -3758,11 +3761,11 @@
       <c r="A108" s="1">
         <v>7</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
       <c r="F108" t="s">
         <v>123</v>
       </c>
@@ -3780,16 +3783,16 @@
       <c r="A109" s="1">
         <v>8</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25" t="s">
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
       <c r="I109" s="5" t="s">
         <v>113</v>
       </c>
@@ -3798,18 +3801,18 @@
       <c r="A110" s="1">
         <v>9</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D110" s="25"/>
+      <c r="D110" s="27"/>
       <c r="E110" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="25" t="s">
+      <c r="F110" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
       <c r="I110" s="5" t="s">
         <v>258</v>
       </c>
@@ -3818,18 +3821,18 @@
       <c r="A111" s="1">
         <v>10</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="25"/>
+      <c r="D111" s="27"/>
       <c r="E111" t="s">
         <v>137</v>
       </c>
-      <c r="F111" s="25" t="s">
+      <c r="F111" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
       <c r="I111" s="5" t="s">
         <v>137</v>
       </c>
@@ -3838,30 +3841,30 @@
       <c r="A112" s="1">
         <v>11</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>12</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25" t="s">
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
       <c r="I113" s="5" t="s">
         <v>117</v>
       </c>
@@ -3870,16 +3873,16 @@
       <c r="A114" s="1">
         <v>13</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25" t="s">
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
       <c r="I114" s="5" t="s">
         <v>118</v>
       </c>
@@ -3888,44 +3891,44 @@
       <c r="A115" s="1">
         <v>14</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>15</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>16</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25" t="s">
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
       <c r="I117" s="5" t="s">
         <v>121</v>
       </c>
@@ -3934,16 +3937,16 @@
       <c r="A118" s="1">
         <v>17</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25" t="s">
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
       <c r="I118" s="5" t="s">
         <v>122</v>
       </c>
@@ -3952,16 +3955,16 @@
       <c r="A119" s="1">
         <v>18</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25" t="s">
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
       <c r="I119" s="5" t="s">
         <v>123</v>
       </c>
@@ -3970,10 +3973,10 @@
       <c r="A120" s="1">
         <v>19</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="C120" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D120" s="25"/>
+      <c r="D120" s="27"/>
       <c r="E120" t="s">
         <v>138</v>
       </c>
@@ -3994,11 +3997,11 @@
       <c r="A121" s="1">
         <v>20</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="C121" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
       <c r="F121" s="7" t="s">
         <v>13</v>
       </c>
@@ -4016,11 +4019,11 @@
       <c r="A122" s="1">
         <v>21</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C122" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
       <c r="F122" s="7" t="s">
         <v>13</v>
       </c>
@@ -4038,11 +4041,11 @@
       <c r="A123" s="1">
         <v>22</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="C123" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
       <c r="F123" s="7" t="s">
         <v>13</v>
       </c>
@@ -4060,11 +4063,11 @@
       <c r="A124" s="1">
         <v>23</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="C124" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
       <c r="F124" s="7" t="s">
         <v>13</v>
       </c>
@@ -4082,11 +4085,11 @@
       <c r="A125" s="1">
         <v>24</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="C125" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
       <c r="F125" s="7" t="s">
         <v>13</v>
       </c>
@@ -4104,11 +4107,11 @@
       <c r="A126" s="1">
         <v>25</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C126" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
       <c r="F126" s="7" t="s">
         <v>13</v>
       </c>
@@ -4126,10 +4129,10 @@
       <c r="A127" s="1">
         <v>26</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="C127" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D127" s="25"/>
+      <c r="D127" s="27"/>
       <c r="E127" s="7" t="s">
         <v>13</v>
       </c>
@@ -4150,11 +4153,11 @@
       <c r="A128" s="1">
         <v>27</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="C128" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
       <c r="F128" s="7" t="s">
         <v>13</v>
       </c>
@@ -4172,10 +4175,10 @@
       <c r="A129" s="1">
         <v>28</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D129" s="25"/>
+      <c r="D129" s="27"/>
       <c r="E129" s="7" t="s">
         <v>13</v>
       </c>
@@ -4196,11 +4199,11 @@
       <c r="A130" s="1">
         <v>29</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C130" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
       <c r="F130" s="7" t="s">
         <v>13</v>
       </c>
@@ -4218,11 +4221,11 @@
       <c r="A131" s="1">
         <v>30</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C131" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
       <c r="F131" s="7" t="s">
         <v>13</v>
       </c>
@@ -4240,10 +4243,10 @@
       <c r="A132" s="1">
         <v>31</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D132" s="25"/>
+      <c r="D132" s="27"/>
       <c r="E132" s="7" t="s">
         <v>13</v>
       </c>
@@ -4326,12 +4329,12 @@
       <c r="B137" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F137" s="20" t="s">
+      <c r="F137" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
-      <c r="I137" s="22"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="26"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -4501,11 +4504,11 @@
       <c r="B146" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="D146" s="21"/>
-      <c r="E146" s="22"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="26"/>
       <c r="F146" s="13" t="s">
         <v>177</v>
       </c>
@@ -4772,11 +4775,11 @@
       <c r="B156" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="D156" s="21"/>
-      <c r="E156" s="22"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="26"/>
       <c r="F156" s="13" t="s">
         <v>177</v>
       </c>
@@ -5034,11 +5037,11 @@
       <c r="B166" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C166" s="20" t="s">
+      <c r="C166" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="D166" s="21"/>
-      <c r="E166" s="22"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="26"/>
       <c r="F166" s="13" t="s">
         <v>177</v>
       </c>
@@ -5299,18 +5302,18 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E175" s="23" t="s">
+      <c r="E175" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24"/>
-      <c r="H175" s="24"/>
+      <c r="F175" s="29"/>
+      <c r="G175" s="29"/>
+      <c r="H175" s="29"/>
     </row>
     <row r="177" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="29" t="s">
+      <c r="A177" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B177" s="30" t="s">
+      <c r="B177" s="23" t="s">
         <v>262</v>
       </c>
       <c r="C177" s="9" t="s">
@@ -6149,42 +6152,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C104:I104"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="C112:I112"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C116:I116"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
     <mergeCell ref="C156:E156"/>
     <mergeCell ref="C166:E166"/>
     <mergeCell ref="E175:H175"/>
@@ -6199,6 +6166,42 @@
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="C128:E128"/>
     <mergeCell ref="C129:D129"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C104:I104"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="C112:I112"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C116:I116"/>
+    <mergeCell ref="F137:I137"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C126:E126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SVD_Files/RST.xlsx
+++ b/SVD_Files/RST.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="290">
   <si>
     <t>Bits</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t>0x3FDF</t>
+  </si>
+  <si>
+    <t>TIM1_C2_SEL</t>
   </si>
 </sst>
 </file>
@@ -960,7 +963,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,6 +985,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1049,23 +1058,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1077,6 +1074,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1359,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,8 +2737,8 @@
       <c r="F53" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="11" t="s">
-        <v>12</v>
+      <c r="G53" s="31" t="s">
+        <v>289</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>12</v>
@@ -3890,11 +3900,11 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="19" t="s">
+      <c r="F100" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
       <c r="I100" s="18"/>
       <c r="J100" s="5"/>
     </row>
@@ -3903,17 +3913,17 @@
         <v>0</v>
       </c>
       <c r="B101" s="11"/>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20" t="s">
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="21" t="s">
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="19" t="s">
         <v>256</v>
       </c>
       <c r="J101" s="11"/>
@@ -3923,17 +3933,17 @@
         <v>1</v>
       </c>
       <c r="B102" s="11"/>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20" t="s">
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="21" t="s">
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="19" t="s">
         <v>257</v>
       </c>
       <c r="J102" s="11"/>
@@ -3943,17 +3953,17 @@
         <v>2</v>
       </c>
       <c r="B103" s="11"/>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20" t="s">
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="21" t="s">
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="19" t="s">
         <v>107</v>
       </c>
       <c r="J103" s="11"/>
@@ -3963,15 +3973,15 @@
         <v>3</v>
       </c>
       <c r="B104" s="11"/>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
       <c r="J104" s="11"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3979,15 +3989,15 @@
         <v>4</v>
       </c>
       <c r="B105" s="11"/>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="21"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="19"/>
       <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -3995,19 +4005,19 @@
         <v>5</v>
       </c>
       <c r="B106" s="11"/>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
       <c r="G106" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H106" s="20" t="s">
+      <c r="H106" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="I106" s="20"/>
+      <c r="I106" s="28"/>
       <c r="J106" s="11"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4015,11 +4025,11 @@
         <v>6</v>
       </c>
       <c r="B107" s="11"/>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
       <c r="F107" s="11" t="s">
         <v>138</v>
       </c>
@@ -4029,7 +4039,7 @@
       <c r="H107" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I107" s="21" t="s">
+      <c r="I107" s="19" t="s">
         <v>111</v>
       </c>
       <c r="J107" s="11"/>
@@ -4039,11 +4049,11 @@
         <v>7</v>
       </c>
       <c r="B108" s="11"/>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
       <c r="F108" s="11" t="s">
         <v>123</v>
       </c>
@@ -4053,7 +4063,7 @@
       <c r="H108" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I108" s="21" t="s">
+      <c r="I108" s="19" t="s">
         <v>112</v>
       </c>
       <c r="J108" s="11"/>
@@ -4063,17 +4073,17 @@
         <v>8</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20" t="s">
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="21" t="s">
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="19" t="s">
         <v>113</v>
       </c>
       <c r="J109" s="11"/>
@@ -4083,19 +4093,19 @@
         <v>9</v>
       </c>
       <c r="B110" s="11"/>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D110" s="20"/>
+      <c r="D110" s="28"/>
       <c r="E110" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="20" t="s">
+      <c r="F110" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="21" t="s">
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="19" t="s">
         <v>258</v>
       </c>
       <c r="J110" s="11"/>
@@ -4105,19 +4115,19 @@
         <v>10</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="20"/>
+      <c r="D111" s="28"/>
       <c r="E111" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F111" s="20" t="s">
+      <c r="F111" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="21" t="s">
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="19" t="s">
         <v>137</v>
       </c>
       <c r="J111" s="11"/>
@@ -4127,15 +4137,15 @@
         <v>11</v>
       </c>
       <c r="B112" s="11"/>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
       <c r="J112" s="11"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4143,17 +4153,17 @@
         <v>12</v>
       </c>
       <c r="B113" s="11"/>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20" t="s">
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="21" t="s">
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="19" t="s">
         <v>117</v>
       </c>
       <c r="J113" s="11"/>
@@ -4163,17 +4173,17 @@
         <v>13</v>
       </c>
       <c r="B114" s="11"/>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20" t="s">
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="21" t="s">
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="19" t="s">
         <v>118</v>
       </c>
       <c r="J114" s="11"/>
@@ -4183,15 +4193,15 @@
         <v>14</v>
       </c>
       <c r="B115" s="11"/>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
       <c r="J115" s="11"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4199,15 +4209,15 @@
         <v>15</v>
       </c>
       <c r="B116" s="11"/>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
       <c r="J116" s="11"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4215,17 +4225,17 @@
         <v>16</v>
       </c>
       <c r="B117" s="11"/>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20" t="s">
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="21" t="s">
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="19" t="s">
         <v>121</v>
       </c>
       <c r="J117" s="11"/>
@@ -4235,17 +4245,17 @@
         <v>17</v>
       </c>
       <c r="B118" s="11"/>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20" t="s">
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G118" s="20"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="21" t="s">
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="19" t="s">
         <v>122</v>
       </c>
       <c r="J118" s="11"/>
@@ -4255,17 +4265,17 @@
         <v>18</v>
       </c>
       <c r="B119" s="11"/>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20" t="s">
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="21" t="s">
+      <c r="G119" s="28"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="19" t="s">
         <v>123</v>
       </c>
       <c r="J119" s="11"/>
@@ -4275,10 +4285,10 @@
         <v>19</v>
       </c>
       <c r="B120" s="11"/>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D120" s="20"/>
+      <c r="D120" s="28"/>
       <c r="E120" s="11" t="s">
         <v>138</v>
       </c>
@@ -4291,7 +4301,7 @@
       <c r="H120" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="I120" s="21" t="s">
+      <c r="I120" s="19" t="s">
         <v>138</v>
       </c>
       <c r="J120" s="11"/>
@@ -4301,11 +4311,11 @@
         <v>20</v>
       </c>
       <c r="B121" s="11"/>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
       <c r="F121" s="12" t="s">
         <v>13</v>
       </c>
@@ -4315,7 +4325,7 @@
       <c r="H121" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I121" s="21" t="s">
+      <c r="I121" s="19" t="s">
         <v>125</v>
       </c>
       <c r="J121" s="11"/>
@@ -4325,11 +4335,11 @@
         <v>21</v>
       </c>
       <c r="B122" s="11"/>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
       <c r="F122" s="12" t="s">
         <v>13</v>
       </c>
@@ -4339,7 +4349,7 @@
       <c r="H122" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I122" s="21" t="s">
+      <c r="I122" s="19" t="s">
         <v>126</v>
       </c>
       <c r="J122" s="11"/>
@@ -4349,11 +4359,11 @@
         <v>22</v>
       </c>
       <c r="B123" s="11"/>
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
       <c r="F123" s="12" t="s">
         <v>13</v>
       </c>
@@ -4363,7 +4373,7 @@
       <c r="H123" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I123" s="21" t="s">
+      <c r="I123" s="19" t="s">
         <v>127</v>
       </c>
       <c r="J123" s="11"/>
@@ -4373,11 +4383,11 @@
         <v>23</v>
       </c>
       <c r="B124" s="11"/>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
       <c r="F124" s="12" t="s">
         <v>13</v>
       </c>
@@ -4387,7 +4397,7 @@
       <c r="H124" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I124" s="21" t="s">
+      <c r="I124" s="19" t="s">
         <v>128</v>
       </c>
       <c r="J124" s="11"/>
@@ -4397,11 +4407,11 @@
         <v>24</v>
       </c>
       <c r="B125" s="11"/>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
       <c r="F125" s="12" t="s">
         <v>13</v>
       </c>
@@ -4411,7 +4421,7 @@
       <c r="H125" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I125" s="21" t="s">
+      <c r="I125" s="19" t="s">
         <v>129</v>
       </c>
       <c r="J125" s="11"/>
@@ -4421,11 +4431,11 @@
         <v>25</v>
       </c>
       <c r="B126" s="11"/>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
       <c r="F126" s="12" t="s">
         <v>13</v>
       </c>
@@ -4435,7 +4445,7 @@
       <c r="H126" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I126" s="21" t="s">
+      <c r="I126" s="19" t="s">
         <v>130</v>
       </c>
       <c r="J126" s="11"/>
@@ -4445,10 +4455,10 @@
         <v>26</v>
       </c>
       <c r="B127" s="11"/>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D127" s="20"/>
+      <c r="D127" s="28"/>
       <c r="E127" s="12" t="s">
         <v>13</v>
       </c>
@@ -4461,7 +4471,7 @@
       <c r="H127" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I127" s="21" t="s">
+      <c r="I127" s="19" t="s">
         <v>207</v>
       </c>
       <c r="J127" s="11"/>
@@ -4471,11 +4481,11 @@
         <v>27</v>
       </c>
       <c r="B128" s="11"/>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
       <c r="F128" s="12" t="s">
         <v>13</v>
       </c>
@@ -4485,7 +4495,7 @@
       <c r="H128" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I128" s="21" t="s">
+      <c r="I128" s="19" t="s">
         <v>132</v>
       </c>
       <c r="J128" s="11"/>
@@ -4495,10 +4505,10 @@
         <v>28</v>
       </c>
       <c r="B129" s="11"/>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="D129" s="20"/>
+      <c r="D129" s="28"/>
       <c r="E129" s="12" t="s">
         <v>13</v>
       </c>
@@ -4511,7 +4521,7 @@
       <c r="H129" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I129" s="21" t="s">
+      <c r="I129" s="19" t="s">
         <v>203</v>
       </c>
       <c r="J129" s="11"/>
@@ -4521,11 +4531,11 @@
         <v>29</v>
       </c>
       <c r="B130" s="11"/>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
       <c r="F130" s="12" t="s">
         <v>13</v>
       </c>
@@ -4535,7 +4545,7 @@
       <c r="H130" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I130" s="21" t="s">
+      <c r="I130" s="19" t="s">
         <v>134</v>
       </c>
       <c r="J130" s="11"/>
@@ -4545,11 +4555,11 @@
         <v>30</v>
       </c>
       <c r="B131" s="11"/>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
       <c r="F131" s="12" t="s">
         <v>13</v>
       </c>
@@ -4559,7 +4569,7 @@
       <c r="H131" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I131" s="21" t="s">
+      <c r="I131" s="19" t="s">
         <v>135</v>
       </c>
       <c r="J131" s="11"/>
@@ -4569,10 +4579,10 @@
         <v>31</v>
       </c>
       <c r="B132" s="11"/>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D132" s="20"/>
+      <c r="D132" s="28"/>
       <c r="E132" s="12" t="s">
         <v>13</v>
       </c>
@@ -4585,7 +4595,7 @@
       <c r="H132" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I132" s="21" t="s">
+      <c r="I132" s="19" t="s">
         <v>259</v>
       </c>
       <c r="J132" s="11"/>
@@ -4593,7 +4603,7 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="11"/>
-      <c r="C133" s="22" t="s">
+      <c r="C133" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D133" s="11"/>
@@ -4682,12 +4692,12 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="19" t="s">
+      <c r="F137" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -4887,11 +4897,11 @@
       <c r="B146" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C146" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
       <c r="F146" s="5" t="s">
         <v>177</v>
       </c>
@@ -5173,11 +5183,11 @@
       <c r="B156" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C156" s="19" t="s">
+      <c r="C156" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
       <c r="F156" s="5" t="s">
         <v>177</v>
       </c>
@@ -5453,11 +5463,11 @@
       <c r="B166" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C166" s="19" t="s">
+      <c r="C166" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
       <c r="F166" s="5" t="s">
         <v>177</v>
       </c>
@@ -5725,12 +5735,12 @@
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
-      <c r="E175" s="23" t="s">
+      <c r="E175" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24"/>
-      <c r="H175" s="24"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="30"/>
       <c r="I175" s="11"/>
       <c r="J175" s="11"/>
     </row>
@@ -5747,10 +5757,10 @@
       <c r="J176" s="11"/>
     </row>
     <row r="177" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="25" t="s">
+      <c r="A177" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="B177" s="26" t="s">
+      <c r="B177" s="22" t="s">
         <v>262</v>
       </c>
       <c r="C177" s="18" t="s">
@@ -6189,20 +6199,20 @@
       </c>
     </row>
     <row r="200" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="27"/>
-      <c r="B200" s="28" t="s">
+      <c r="A200" s="23"/>
+      <c r="B200" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C200" s="29" t="s">
+      <c r="C200" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="D200" s="30"/>
-      <c r="E200" s="30"/>
-      <c r="F200" s="30"/>
-      <c r="G200" s="30"/>
-      <c r="H200" s="30"/>
-      <c r="I200" s="30"/>
-      <c r="J200" s="30"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
+      <c r="F200" s="26"/>
+      <c r="G200" s="26"/>
+      <c r="H200" s="26"/>
+      <c r="I200" s="26"/>
+      <c r="J200" s="26"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
@@ -6878,7 +6888,7 @@
     </row>
     <row r="239" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="13"/>
-      <c r="B239" s="28" t="s">
+      <c r="B239" s="24" t="s">
         <v>219</v>
       </c>
       <c r="C239" s="14"/>
@@ -6887,7 +6897,7 @@
       <c r="F239" s="14"/>
       <c r="G239" s="14"/>
       <c r="H239" s="14"/>
-      <c r="I239" s="29" t="s">
+      <c r="I239" s="25" t="s">
         <v>212</v>
       </c>
       <c r="J239" s="14"/>
@@ -7067,57 +7077,23 @@
       </c>
     </row>
     <row r="250" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="27"/>
-      <c r="B250" s="28" t="s">
+      <c r="A250" s="23"/>
+      <c r="B250" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C250" s="30"/>
-      <c r="D250" s="29" t="s">
+      <c r="C250" s="26"/>
+      <c r="D250" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="E250" s="30"/>
-      <c r="F250" s="30"/>
-      <c r="G250" s="30"/>
-      <c r="H250" s="30"/>
-      <c r="I250" s="30"/>
-      <c r="J250" s="30"/>
+      <c r="E250" s="26"/>
+      <c r="F250" s="26"/>
+      <c r="G250" s="26"/>
+      <c r="H250" s="26"/>
+      <c r="I250" s="26"/>
+      <c r="J250" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C104:I104"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="C112:I112"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C116:I116"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F111:H111"/>
     <mergeCell ref="C156:E156"/>
     <mergeCell ref="C166:E166"/>
     <mergeCell ref="E175:H175"/>
@@ -7134,6 +7110,40 @@
     <mergeCell ref="C129:D129"/>
     <mergeCell ref="C101:E101"/>
     <mergeCell ref="C102:E102"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C104:I104"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="C112:I112"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C116:I116"/>
+    <mergeCell ref="F137:I137"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C126:E126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
